--- a/economizate/dominio/src/test/resources/prueba_writer.xlsx
+++ b/economizate/dominio/src/test/resources/prueba_writer.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>27/04/2018</t>
+  </si>
   <si>
     <t>Luz</t>
   </si>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,18 +84,24 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="n">
         <v>-300.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
         <v>37214.52</v>
       </c>
     </row>
